--- a/static/Holding_Breakup/TV18BRDCST.xlsx
+++ b/static/Holding_Breakup/TV18BRDCST.xlsx
@@ -37,13 +37,13 @@
     <t>60.40%</t>
   </si>
   <si>
-    <t>7.89%</t>
-  </si>
-  <si>
-    <t>19.91%</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>7.76%</t>
+  </si>
+  <si>
+    <t>19.60%</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
